--- a/pred_ohlcv/54_21/2019-11-02 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 SNT ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-817329.2350937885</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-381867.0946937885</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-227256.4840543947</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 SNT ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-1366526.445393789</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1351709.268193789</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1320520.342893789</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1323946.355693789</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1287146.355693789</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1011405.649293788</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-817329.2350937885</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-629278.9290937885</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-522255.2158937885</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-381867.0946937885</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-466093.3064937886</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-490876.1253937886</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-368836.8870937886</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-538515.5286937886</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-444007.6982937885</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-216216.9743543947</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-172237.2306543947</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-227256.4840543947</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
